--- a/table/data/ou.xlsx
+++ b/table/data/ou.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cruise</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -376,33 +376,13 @@
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>In_situ_TOU_sd</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>In_situ_DOU_mean</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>In_situ_DOU_sd</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>OPD_mean</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>OPD_sd</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,23 +396,11 @@
       <c r="D2">
         <v>3.021792075630112</v>
       </c>
-      <c r="E2">
-        <v>3.486671109212215</v>
-      </c>
-      <c r="F2">
-        <v>2.997661316524364</v>
-      </c>
-      <c r="G2">
-        <v>0.5922222222222222</v>
-      </c>
-      <c r="H2">
-        <v>0.06085940308978098</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -444,25 +412,13 @@
         <v>9.37270008388623</v>
       </c>
       <c r="D3">
-        <v>4.154413378309561</v>
-      </c>
-      <c r="E3">
-        <v>1.656443131245045</v>
-      </c>
-      <c r="F3">
-        <v>1.055781605247449</v>
-      </c>
-      <c r="G3">
-        <v>0.615725</v>
-      </c>
-      <c r="H3">
-        <v>0.1116716327964653</v>
+        <v>4.15441337830956</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -476,23 +432,11 @@
       <c r="D4">
         <v>4.797121688586645</v>
       </c>
-      <c r="E4">
-        <v>3.372541099350995</v>
-      </c>
-      <c r="F4">
-        <v>1.785781444495076</v>
-      </c>
-      <c r="G4">
-        <v>0.6295222222222222</v>
-      </c>
-      <c r="H4">
-        <v>0.1916196087159256</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -506,23 +450,11 @@
       <c r="D5">
         <v>7.427772152801498</v>
       </c>
-      <c r="E5">
-        <v>1.528740530760774</v>
-      </c>
-      <c r="F5">
-        <v>0.7739757426036752</v>
-      </c>
-      <c r="G5">
-        <v>0.7523555555555556</v>
-      </c>
-      <c r="H5">
-        <v>0.1670401082907269</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OR1-1219</t>
+          <t>March</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -536,23 +468,11 @@
       <c r="D6">
         <v>4.516148172916904</v>
       </c>
-      <c r="E6">
-        <v>1.688920978190313</v>
-      </c>
-      <c r="F6">
-        <v>1.379024802683348</v>
-      </c>
-      <c r="G6">
-        <v>0.9859333333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.6022855095384581</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -566,23 +486,11 @@
       <c r="D7">
         <v>4.182919462341364</v>
       </c>
-      <c r="E7">
-        <v>0.8901939255912749</v>
-      </c>
-      <c r="F7">
-        <v>0.8053369955135085</v>
-      </c>
-      <c r="G7">
-        <v>0.7069875</v>
-      </c>
-      <c r="H7">
-        <v>0.2166830894417006</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -596,23 +504,11 @@
       <c r="D8">
         <v>2.417082164205234</v>
       </c>
-      <c r="E8">
-        <v>2.530563678356253</v>
-      </c>
-      <c r="F8">
-        <v>1.311716303769053</v>
-      </c>
-      <c r="G8">
-        <v>0.5341111111111111</v>
-      </c>
-      <c r="H8">
-        <v>0.2547917210411498</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -626,23 +522,11 @@
       <c r="D9">
         <v>2.582377711667582</v>
       </c>
-      <c r="E9">
-        <v>2.329492332245935</v>
-      </c>
-      <c r="F9">
-        <v>1.146775461451471</v>
-      </c>
-      <c r="G9">
-        <v>0.5253111111111111</v>
-      </c>
-      <c r="H9">
-        <v>0.08558347452114289</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -656,23 +540,11 @@
       <c r="D10">
         <v>0.8990890234241501</v>
       </c>
-      <c r="E10">
-        <v>0.9066090287144701</v>
-      </c>
-      <c r="F10">
-        <v>0.6267760725849483</v>
-      </c>
-      <c r="G10">
-        <v>1.042042857142857</v>
-      </c>
-      <c r="H10">
-        <v>0.1052191816660641</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -686,23 +558,11 @@
       <c r="D11">
         <v>4.978187748197779</v>
       </c>
-      <c r="E11">
-        <v>2.003790242562644</v>
-      </c>
-      <c r="F11">
-        <v>1.191497592781794</v>
-      </c>
-      <c r="G11">
-        <v>0.6502250000000001</v>
-      </c>
-      <c r="H11">
-        <v>0.1308869059259067</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OR1-1242</t>
+          <t>October</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -715,18 +575,6 @@
       </c>
       <c r="D12">
         <v>0.297157838819445</v>
-      </c>
-      <c r="E12">
-        <v>1.225328980824715</v>
-      </c>
-      <c r="F12">
-        <v>0.9655485258167602</v>
-      </c>
-      <c r="G12">
-        <v>0.7249222222222223</v>
-      </c>
-      <c r="H12">
-        <v>0.1487280721466007</v>
       </c>
     </row>
   </sheetData>
